--- a/src/cypress/downloads/data-tugas-akhir-mahasiswa.xlsx
+++ b/src/cypress/downloads/data-tugas-akhir-mahasiswa.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
-  <si>
-    <t>Username</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+  <si>
+    <t>NIM</t>
   </si>
   <si>
     <t>Nama</t>
@@ -29,6 +29,138 @@
     <t>Status</t>
   </si>
   <si>
+    <t>fhardiansyah</t>
+  </si>
+  <si>
+    <t>Asmuni Maryadi</t>
+  </si>
+  <si>
+    <t>D2 Pengembangan Piranti Lunak Situs</t>
+  </si>
+  <si>
+    <t>Belum Dikumpulkan</t>
+  </si>
+  <si>
+    <t>zelaya71</t>
+  </si>
+  <si>
+    <t>Hendra Pratiwi</t>
+  </si>
+  <si>
+    <t>ana.wahyuni</t>
+  </si>
+  <si>
+    <t>Dewi Pangestu</t>
+  </si>
+  <si>
+    <t>D4 Teknik Informatika</t>
+  </si>
+  <si>
+    <t>zmaheswara</t>
+  </si>
+  <si>
+    <t>Azalea Prastuti</t>
+  </si>
+  <si>
+    <t>hendra75</t>
+  </si>
+  <si>
+    <t>Agnes Prasetyo</t>
+  </si>
+  <si>
+    <t>rendy77</t>
+  </si>
+  <si>
+    <t>Farhunnisa Maheswara</t>
+  </si>
+  <si>
+    <t>ilyas30</t>
+  </si>
+  <si>
+    <t>Gading Kuswandari</t>
+  </si>
+  <si>
+    <t>bagus65</t>
+  </si>
+  <si>
+    <t>Vanya Sihotang</t>
+  </si>
+  <si>
+    <t>vega31</t>
+  </si>
+  <si>
+    <t>Daru Uwais</t>
+  </si>
+  <si>
+    <t>firmansyah.bagya</t>
+  </si>
+  <si>
+    <t>Hendra Habibi</t>
+  </si>
+  <si>
+    <t>kpalastri</t>
+  </si>
+  <si>
+    <t>Ida Oktaviani</t>
+  </si>
+  <si>
+    <t>mursinin.saputra</t>
+  </si>
+  <si>
+    <t>Harjasa Susanti</t>
+  </si>
+  <si>
+    <t>ulva.mangunsong</t>
+  </si>
+  <si>
+    <t>Salimah Firgantoro</t>
+  </si>
+  <si>
+    <t>halimah.tira</t>
+  </si>
+  <si>
+    <t>Bella Winarsih</t>
+  </si>
+  <si>
+    <t>sakura86</t>
+  </si>
+  <si>
+    <t>Cakrawala Mandala</t>
+  </si>
+  <si>
+    <t>simanjuntak.vero</t>
+  </si>
+  <si>
+    <t>Nyana Maryadi</t>
+  </si>
+  <si>
+    <t>michelle.nugroho</t>
+  </si>
+  <si>
+    <t>Asmadi Tarihoran</t>
+  </si>
+  <si>
+    <t>hnarpati</t>
+  </si>
+  <si>
+    <t>Jelita Purwanti</t>
+  </si>
+  <si>
+    <t>krahayu</t>
+  </si>
+  <si>
+    <t>Kajen Prakasa</t>
+  </si>
+  <si>
+    <t>sprasetyo</t>
+  </si>
+  <si>
+    <t>Kalim Hidayanto</t>
+  </si>
+  <si>
+    <t>fahmi alfarizi</t>
+  </si>
+  <si>
     <t>susipujiastuti</t>
   </si>
   <si>
@@ -48,6 +180,12 @@
   </si>
   <si>
     <t>D4 Sistem Informasi Bisnis</t>
+  </si>
+  <si>
+    <t>farhan12</t>
+  </si>
+  <si>
+    <t>Farhan Asyam</t>
   </si>
   <si>
     <t>adesusilo</t>
@@ -393,7 +531,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,7 +575,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -445,16 +583,324 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>2141762098</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/src/cypress/downloads/data-tugas-akhir-mahasiswa.xlsx
+++ b/src/cypress/downloads/data-tugas-akhir-mahasiswa.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>NIM</t>
   </si>
@@ -27,33 +27,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>susipujiastuti</t>
-  </si>
-  <si>
-    <t>Susi Pujiastuti</t>
-  </si>
-  <si>
-    <t>S2 Rekayasa Teknologi Informasi</t>
-  </si>
-  <si>
-    <t>Diterima</t>
-  </si>
-  <si>
-    <t>bagustejo</t>
-  </si>
-  <si>
-    <t>Bagus Tejo</t>
-  </si>
-  <si>
-    <t>D4 Sistem Informasi Bisnis</t>
-  </si>
-  <si>
-    <t>adesusilo</t>
-  </si>
-  <si>
-    <t>Ade Susilo</t>
   </si>
 </sst>
 </file>
@@ -393,7 +366,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,48 +388,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/cypress/downloads/data-tugas-akhir-mahasiswa.xlsx
+++ b/src/cypress/downloads/data-tugas-akhir-mahasiswa.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>NIM</t>
   </si>
@@ -27,6 +27,42 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>farhan12</t>
+  </si>
+  <si>
+    <t>Farhan Asyam</t>
+  </si>
+  <si>
+    <t>D4 Teknik Informatika</t>
+  </si>
+  <si>
+    <t>Diterima</t>
+  </si>
+  <si>
+    <t>susipujiastuti</t>
+  </si>
+  <si>
+    <t>Susi Pujiastuti</t>
+  </si>
+  <si>
+    <t>S2 Rekayasa Teknologi Informasi</t>
+  </si>
+  <si>
+    <t>bagustejo</t>
+  </si>
+  <si>
+    <t>Bagus Tejo</t>
+  </si>
+  <si>
+    <t>D4 Sistem Informasi Bisnis</t>
+  </si>
+  <si>
+    <t>adesusilo</t>
+  </si>
+  <si>
+    <t>Ade Susilo</t>
   </si>
 </sst>
 </file>
@@ -366,7 +402,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -386,6 +422,62 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/cypress/downloads/data-tugas-akhir-mahasiswa.xlsx
+++ b/src/cypress/downloads/data-tugas-akhir-mahasiswa.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>NIM</t>
   </si>
@@ -29,34 +29,16 @@
     <t>Status</t>
   </si>
   <si>
-    <t>farhan12</t>
-  </si>
-  <si>
-    <t>Farhan Asyam</t>
-  </si>
-  <si>
-    <t>D4 Teknik Informatika</t>
+    <t>bagustejo</t>
+  </si>
+  <si>
+    <t>Bagus Tejo</t>
+  </si>
+  <si>
+    <t>D4 Sistem Informasi Bisnis</t>
   </si>
   <si>
     <t>Diterima</t>
-  </si>
-  <si>
-    <t>susipujiastuti</t>
-  </si>
-  <si>
-    <t>Susi Pujiastuti</t>
-  </si>
-  <si>
-    <t>S2 Rekayasa Teknologi Informasi</t>
-  </si>
-  <si>
-    <t>bagustejo</t>
-  </si>
-  <si>
-    <t>Bagus Tejo</t>
-  </si>
-  <si>
-    <t>D4 Sistem Informasi Bisnis</t>
   </si>
   <si>
     <t>adesusilo</t>
@@ -402,7 +384,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,37 +428,9 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
